--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgoett/Library/CloudStorage/OneDrive-Personal/Documents/Fall2024/Flatiron-Live/Phase6/StreamlitTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD1D36F-F9D9-1A42-ACAB-CC5454607FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C99E65-4705-7849-9E59-393C6DDF4029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="780" windowWidth="20120" windowHeight="16940" xr2:uid="{BBB30F0B-A272-C94D-B0E8-109A7DBB0EFE}"/>
+    <workbookView xWindow="8440" yWindow="1060" windowWidth="20120" windowHeight="16940" xr2:uid="{BBB30F0B-A272-C94D-B0E8-109A7DBB0EFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="81">
   <si>
     <t>CFP_First_Round1</t>
   </si>
@@ -54,162 +54,54 @@
     <t>Name</t>
   </si>
   <si>
-    <t>CFP First Round 1</t>
-  </si>
-  <si>
-    <t>CFP First Round 2</t>
-  </si>
-  <si>
-    <t>CFP First Round 3</t>
-  </si>
-  <si>
-    <t>CFP First Round 4</t>
-  </si>
-  <si>
-    <t>Pop-Tarts Bowl</t>
-  </si>
-  <si>
-    <t>Arizona Bowl</t>
-  </si>
-  <si>
-    <t>Military Bowl</t>
-  </si>
-  <si>
-    <t>Alamo Bowl</t>
-  </si>
-  <si>
-    <t>Pinstripe Bowl</t>
-  </si>
-  <si>
-    <t>Music City Bowl</t>
-  </si>
-  <si>
-    <t>Reliaquest Bowl</t>
-  </si>
-  <si>
-    <t>Sun Bowl</t>
-  </si>
-  <si>
-    <t>Citrus Bowl</t>
-  </si>
-  <si>
-    <t>Texas Bowl</t>
-  </si>
-  <si>
-    <t>Gator Bowl</t>
-  </si>
-  <si>
-    <t>First Responder Bowl</t>
-  </si>
-  <si>
-    <t>Mayo Bowl</t>
-  </si>
-  <si>
-    <t>Bahamas Bowl</t>
-  </si>
-  <si>
-    <t>1. Indiana</t>
-  </si>
-  <si>
     <t>2. Notre Dame</t>
   </si>
   <si>
-    <t>3. Tennessee</t>
-  </si>
-  <si>
     <t>4. Ohio State</t>
   </si>
   <si>
-    <t>5. SMU</t>
-  </si>
-  <si>
     <t>6. Penn State</t>
   </si>
   <si>
-    <t>7. Clemson</t>
-  </si>
-  <si>
     <t>8. Texas</t>
   </si>
   <si>
-    <t>10. Iowa State</t>
-  </si>
-  <si>
-    <t>12. Colorado State</t>
-  </si>
-  <si>
     <t>13. N.C. State</t>
   </si>
   <si>
-    <t>14. East Carolina</t>
-  </si>
-  <si>
     <t xml:space="preserve">15. Colorado </t>
   </si>
   <si>
-    <t>16. BYU</t>
-  </si>
-  <si>
-    <t>17. Boston College</t>
-  </si>
-  <si>
     <t>18. Nebraska</t>
   </si>
   <si>
     <t>19. Missouri</t>
   </si>
   <si>
-    <t>20. Iowa</t>
-  </si>
-  <si>
-    <t>21. Michigan</t>
-  </si>
-  <si>
     <t>22. Alabama</t>
   </si>
   <si>
     <t>23. Louisville</t>
   </si>
   <si>
-    <t>24. Washington</t>
-  </si>
-  <si>
     <t>25. South Carolina</t>
   </si>
   <si>
-    <t>26. Illinois</t>
-  </si>
-  <si>
-    <t>27. Baylor</t>
-  </si>
-  <si>
     <t>28. LSU</t>
   </si>
   <si>
-    <t>29. Duke</t>
-  </si>
-  <si>
     <t>30. Ole Miss</t>
   </si>
   <si>
-    <t>31. North Texas</t>
-  </si>
-  <si>
     <t>32. Texas State</t>
   </si>
   <si>
     <t>33. Minnesota</t>
   </si>
   <si>
-    <t>34. Virginia Tech</t>
-  </si>
-  <si>
     <t>35. Liberty</t>
   </si>
   <si>
-    <t>36. Buffalo</t>
-  </si>
-  <si>
     <t>9. Miami</t>
   </si>
   <si>
@@ -261,10 +153,133 @@
     <t>Jeff</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Test 2</t>
+    <t>Mom</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>Kaia</t>
+  </si>
+  <si>
+    <t>Gourav</t>
+  </si>
+  <si>
+    <t>Dad</t>
+  </si>
+  <si>
+    <t>Mr. Ayala</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Anabel</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Liliana</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>1. Indiana (+9)</t>
+  </si>
+  <si>
+    <t>3. Tennessee (+8)</t>
+  </si>
+  <si>
+    <t>5. SMU (+8)</t>
+  </si>
+  <si>
+    <t>7. Clemson (+11)</t>
+  </si>
+  <si>
+    <t>10. Iowa State (+8)</t>
+  </si>
+  <si>
+    <t>12. Colorado State (+2)</t>
+  </si>
+  <si>
+    <t>14. East Carolina (+9)</t>
+  </si>
+  <si>
+    <t>16. BYU (+4)</t>
+  </si>
+  <si>
+    <t>17. Boston College (+8)</t>
+  </si>
+  <si>
+    <t>20. Iowa (+2)</t>
+  </si>
+  <si>
+    <t>21. Michigan (+11)</t>
+  </si>
+  <si>
+    <t>24. Washington (+7)</t>
+  </si>
+  <si>
+    <t>26. Illinois (+9)</t>
+  </si>
+  <si>
+    <t>27. Baylor (+5)</t>
+  </si>
+  <si>
+    <t>29. Duke (+13)</t>
+  </si>
+  <si>
+    <t>31. North Texas (+9)</t>
+  </si>
+  <si>
+    <t>34. Virginia Tech (+4)</t>
+  </si>
+  <si>
+    <t>36. Buffalo (+3)</t>
+  </si>
+  <si>
+    <t>Uncle Jim</t>
+  </si>
+  <si>
+    <t>Aunt Lucy</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>Fran</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Aunt Barbara Marie</t>
+  </si>
+  <si>
+    <t>Golden Girls</t>
+  </si>
+  <si>
+    <t>Uncle Jim and Family</t>
+  </si>
+  <si>
+    <t>Uncle Steve and Family</t>
+  </si>
+  <si>
+    <t>Aunt Linda</t>
+  </si>
+  <si>
+    <t>Aunt Linda and Family</t>
   </si>
 </sst>
 </file>
@@ -650,253 +665,1381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79D65A6-9A53-0747-83AD-D251047182BA}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="13" width="17.6640625" customWidth="1"/>
-    <col min="14" max="19" width="20.83203125" customWidth="1"/>
+    <col min="1" max="2" width="23" customWidth="1"/>
+    <col min="3" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="20" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" t="s">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q7" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R7" t="s">
         <v>64</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>63</v>
+      </c>
+      <c r="R10" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" t="s">
         <v>65</v>
       </c>
-      <c r="M1" t="s">
+      <c r="T10" t="s">
         <v>66</v>
       </c>
-      <c r="N1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L11" t="s">
         <v>58</v>
       </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>63</v>
+      </c>
+      <c r="R12" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="L2" t="s">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" t="s">
+        <v>64</v>
+      </c>
+      <c r="S13" t="s">
+        <v>19</v>
+      </c>
+      <c r="T13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>63</v>
+      </c>
+      <c r="R14" t="s">
+        <v>64</v>
+      </c>
+      <c r="S14" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="M2" t="s">
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S15" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
-      <c r="N2" t="s">
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>63</v>
+      </c>
+      <c r="R16" t="s">
+        <v>64</v>
+      </c>
+      <c r="S16" t="s">
+        <v>19</v>
+      </c>
+      <c r="T16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S17" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>63</v>
+      </c>
+      <c r="R18" t="s">
+        <v>64</v>
+      </c>
+      <c r="S18" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>46</v>
       </c>
-      <c r="O2" t="s">
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19" t="s">
+        <v>19</v>
+      </c>
+      <c r="T19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" t="s">
+        <v>19</v>
+      </c>
+      <c r="T20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="K21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S21" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" t="s">
         <v>58</v>
       </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>51</v>
-      </c>
-      <c r="R4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" t="s">
-        <v>55</v>
+      <c r="M22" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" t="s">
+        <v>15</v>
+      </c>
+      <c r="P22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" t="s">
+        <v>18</v>
+      </c>
+      <c r="S22" t="s">
+        <v>65</v>
+      </c>
+      <c r="T22" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -908,109 +2051,109 @@
           <x14:formula1>
             <xm:f>Reference!$B$1:$C$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B20</xm:sqref>
+          <xm:sqref>C22:C45 C2:C21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C5A76F52-5625-534A-B982-93BD74F17D5C}">
           <x14:formula1>
             <xm:f>Reference!$B$2:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C20</xm:sqref>
+          <xm:sqref>D22:D45 D2:D21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECEE4AC3-1EBB-3843-9DFD-488AD8166259}">
           <x14:formula1>
             <xm:f>Reference!$B$3:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D20</xm:sqref>
+          <xm:sqref>E22:E45 E2:E21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4786EA49-6254-4249-B61C-237C21A0FE83}">
           <x14:formula1>
             <xm:f>Reference!$B$4:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E20</xm:sqref>
+          <xm:sqref>F22:F45 F2:F21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{706B629C-2EF2-BC4A-81E9-291AE2E5AC1D}">
           <x14:formula1>
             <xm:f>Reference!$B$5:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F20</xm:sqref>
+          <xm:sqref>G22:G45 G2:G21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{277C3574-C5B1-114B-BB48-03FD696E9037}">
           <x14:formula1>
             <xm:f>Reference!$B$6:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G20</xm:sqref>
+          <xm:sqref>H22:H45 H2:H21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D4F5304-7DD1-0E47-858E-CA31B891ADF9}">
           <x14:formula1>
             <xm:f>Reference!$B$7:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H20</xm:sqref>
+          <xm:sqref>I22:I45 I2:I21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0A760B4C-F4E9-AE4F-A865-8D3ED88AD12D}">
           <x14:formula1>
             <xm:f>Reference!$B$8:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I20</xm:sqref>
+          <xm:sqref>J22:J45 J2:J21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9EA7B93F-B46F-BD49-971B-B7EFFB0C56EE}">
           <x14:formula1>
             <xm:f>Reference!$B$9:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J20</xm:sqref>
+          <xm:sqref>K22:K45 K2:K21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F6746C9-3639-4044-805F-5F452C8E0D2C}">
           <x14:formula1>
             <xm:f>Reference!$B$10:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K20</xm:sqref>
+          <xm:sqref>L22:L45 L2:L21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D112108C-63B4-FA46-A492-D70CD1994148}">
           <x14:formula1>
             <xm:f>Reference!$B$11:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L20</xm:sqref>
+          <xm:sqref>M22:M45 M2:M21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{503C6334-8E7B-3C40-BB0B-385A374AAB60}">
           <x14:formula1>
             <xm:f>Reference!$B$12:$C$12</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M20</xm:sqref>
+          <xm:sqref>N22:N45 N2:N21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7F64C7B-DC97-FB49-BC61-51565C1D2ABE}">
           <x14:formula1>
             <xm:f>Reference!$B$13:$C$13</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N20</xm:sqref>
+          <xm:sqref>O22:O45 O2:O21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3984CE74-A667-404F-9953-162CBB9C5B8F}">
           <x14:formula1>
             <xm:f>Reference!$B$14:$C$14</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O20</xm:sqref>
+          <xm:sqref>P22:P45 P2:P21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B603061B-9A0C-C64B-969C-C8852A81028B}">
           <x14:formula1>
             <xm:f>Reference!$B$15:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>P2:P20</xm:sqref>
+          <xm:sqref>Q22:Q45 Q2:Q21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D6015A96-F4C6-F749-82D3-503C918C5D7F}">
           <x14:formula1>
             <xm:f>Reference!$B$16:$C$16</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q20</xm:sqref>
+          <xm:sqref>R22:R45 R2:R21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5272D066-5EBB-6B4D-B8FC-09E205D5CD87}">
           <x14:formula1>
             <xm:f>Reference!$B$17:$C$17</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R20</xm:sqref>
+          <xm:sqref>S22:S45 S2:S21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{37C2C097-FCBD-1240-9FC8-FC9DFD610D06}">
           <x14:formula1>
             <xm:f>Reference!$B$18:$C$18</xm:f>
           </x14:formula1>
-          <xm:sqref>S2:S20</xm:sqref>
+          <xm:sqref>T22:T45 T2:T21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1023,7 +2166,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="R1" sqref="D1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1035,200 +2178,200 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
